--- a/src/main/resources/META-INF/resources/template.xlsx
+++ b/src/main/resources/META-INF/resources/template.xlsx
@@ -14,28 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>题目类型（单多）</t>
-  </si>
-  <si>
-    <t>题目标题</t>
-  </si>
-  <si>
-    <t>题目内容1</t>
-  </si>
-  <si>
-    <t>题目内容2</t>
-  </si>
-  <si>
-    <t>题目内容3</t>
-  </si>
-  <si>
-    <t>题目内容4</t>
-  </si>
-  <si>
-    <t>答案</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>分数</t>
   </si>
@@ -43,37 +22,180 @@
     <t>过期时间</t>
   </si>
   <si>
+    <t>多选</t>
+  </si>
+  <si>
+    <t>答案1</t>
+  </si>
+  <si>
+    <t>答案2</t>
+  </si>
+  <si>
+    <t>答案3</t>
+  </si>
+  <si>
+    <t>答案4</t>
+  </si>
+  <si>
+    <t>答案1，答案2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选题标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选题标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>题目类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（单选/多选/判断）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>题目标题</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不带序号）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>题目内容1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不带序号）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>题目内容2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不带序号）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>题目内容3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不带序号）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>题目内容4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不带序号）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>答案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（多选题答案用中文逗号隔开）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>优先级（出题顺序）</t>
-  </si>
-  <si>
-    <t>多选</t>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案1</t>
-  </si>
-  <si>
-    <t>答案2</t>
-  </si>
-  <si>
-    <t>答案3</t>
-  </si>
-  <si>
-    <t>答案4</t>
-  </si>
-  <si>
-    <t>答案1，答案2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +222,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -436,72 +567,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -515,25 +651,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -542,6 +678,32 @@
         <v>43831</v>
       </c>
       <c r="J3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="J4">
         <v>5</v>
       </c>
     </row>
